--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stuti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stuti\OneDrive\Desktop\My DSA Journey\My-DSA-Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D366779-27FF-412A-86D9-06CDEE145616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6293EE-8F4E-4846-8570-108CB6BB1507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="4770" windowHeight="11363" xr2:uid="{35A28678-342F-4349-8182-F42D339DA923}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{35A28678-342F-4349-8182-F42D339DA923}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$57</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="102">
   <si>
     <t xml:space="preserve">Contains Duplicate </t>
   </si>
@@ -111,9 +114,6 @@
     <t xml:space="preserve">Design Underground System </t>
   </si>
   <si>
-    <t>ARRAY AND HASHING</t>
-  </si>
-  <si>
     <t>TWO POINTERS</t>
   </si>
   <si>
@@ -175,6 +175,165 @@
   </si>
   <si>
     <t xml:space="preserve">Find The Duplicate Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Needed to Inform All Employees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncrossed Lines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solving Questions With Brainpower </t>
+  </si>
+  <si>
+    <t>1-D DYNAMIC PROGRAMMING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrix Diagonal Sum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiral Matrix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiral Matrix II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus One </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roman to Integer </t>
+  </si>
+  <si>
+    <t>MATH &amp; GEOMETRY</t>
+  </si>
+  <si>
+    <t>TREES</t>
+  </si>
+  <si>
+    <t>ARRAY &amp; HASHING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuffle the Array </t>
+  </si>
+  <si>
+    <t>BIT MANIPULATION</t>
+  </si>
+  <si>
+    <t>NeetCode</t>
+  </si>
+  <si>
+    <t>9. Palindrome Number</t>
+  </si>
+  <si>
+    <t>171. Excel Sheet Column Number</t>
+  </si>
+  <si>
+    <t>228. Summary Ranges</t>
+  </si>
+  <si>
+    <t>232. Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>349. Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>350. Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>387. First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>485. Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>496. Next Greater Element I</t>
+  </si>
+  <si>
+    <t>566. Reshape the Matrix</t>
+  </si>
+  <si>
+    <t>766. Toeplitz Matrix</t>
+  </si>
+  <si>
+    <t>832. Flipping an Image</t>
+  </si>
+  <si>
+    <t>867. Transpose Matrix</t>
+  </si>
+  <si>
+    <t>1207. Unique Number of Occurrences</t>
+  </si>
+  <si>
+    <t>1252. Cells with Odd Values in a Matrix</t>
+  </si>
+  <si>
+    <t>1295. Find Numbers with Even Number of Digits</t>
+  </si>
+  <si>
+    <t>1365. How Many Numbers Are Smaller Than the Current Number</t>
+  </si>
+  <si>
+    <t>1389. Create Target Array in the Given Order</t>
+  </si>
+  <si>
+    <t>1431. Kids With the Greatest Number of Candies</t>
+  </si>
+  <si>
+    <t>1480. Running Sum of 1d Array</t>
+  </si>
+  <si>
+    <t>1512. Number of Good Pairs</t>
+  </si>
+  <si>
+    <t>1672. Richest Customer Wealth</t>
+  </si>
+  <si>
+    <t>1704. Determine if String Halves Are Alike</t>
+  </si>
+  <si>
+    <t>1732. Find the Highest Altitude</t>
+  </si>
+  <si>
+    <t>1773. Count Items Matching a Rule</t>
+  </si>
+  <si>
+    <t>1832. Check if the Sentence Is Pangram</t>
+  </si>
+  <si>
+    <t>1920. Build Array from Permutation</t>
+  </si>
+  <si>
+    <t>142. Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>334. Increasing Triplet Subsequence</t>
+  </si>
+  <si>
+    <t>451. Sort Characters By Frequency</t>
+  </si>
+  <si>
+    <t>1541. Minimum Insertions to Balance a Parentheses String</t>
+  </si>
+  <si>
+    <t>1657. Determine if Two Strings Are Close</t>
+  </si>
+  <si>
+    <t>2256. Minimum Average Difference</t>
+  </si>
+  <si>
+    <t>2352. Equal Row and Column Pairs</t>
+  </si>
+  <si>
+    <t>LeetCode</t>
   </si>
 </sst>
 </file>
@@ -198,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +373,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,13 +401,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -252,6 +417,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -560,567 +730,1013 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C2AC99-E8E0-4C93-A3FF-83FEBC77AAAF}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="44.796875" customWidth="1"/>
-    <col min="2" max="2" width="18.06640625" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.46484375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C57" xr:uid="{06C2AC99-E8E0-4C93-A3FF-83FEBC77AAAF}"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{608175FD-8524-4C0A-B110-CAA9BA125110}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://leetcode.com/problems/valid-anagram/" xr:uid="{832B98AA-4D03-4B44-A6F0-83095830EDC2}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://leetcode.com/problems/two-sum/" xr:uid="{027155A8-7BD7-4C96-91AC-5769FA95D73E}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{348AEF5C-2820-4ABA-AD65-A4E6EEADCB90}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://leetcode.com/problems/remove-element/" xr:uid="{D152BA4C-F34D-48CF-BA33-22B93287E2A3}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://leetcode.com/problems/can-place-flowers/" xr:uid="{6C503DA3-2603-4EA0-9104-0E0EE7BA5262}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://leetcode.com/problems/majority-element/" xr:uid="{73CC4953-D412-4916-AAB0-59B60C7BB75E}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://leetcode.com/problems/design-hashset/" xr:uid="{75F37A29-C012-4C85-9E43-DBEE311F5D61}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{442EA10F-BB6F-4B7A-92F2-83950976E88A}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{CC6E30BA-6950-485B-806E-137C26079A0E}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://leetcode.com/problems/valid-sudoku/" xr:uid="{8B96258D-24FD-4EFF-87CE-8AAAFDAE79B6}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://leetcode.com/problems/longest-consecutive-sequence/" xr:uid="{BD133C78-25EB-4BB8-A6A5-D0DC5F2E412E}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{45F88198-FE48-4B66-B3E9-817AF5000338}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://leetcode.com/problems/find-the-index-of-the-first-occurrence-in-a-string/" xr:uid="{1831720E-929B-418F-B7FB-3EC90F9C8D72}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://leetcode.com/problems/find-the-difference-of-two-arrays/" xr:uid="{5633BB26-C630-40FF-838F-8340E3B5ADEF}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://leetcode.com/problems/design-parking-system/" xr:uid="{35633056-67E5-476C-8AB4-9322BE69DECF}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://leetcode.com/problems/design-underground-system/" xr:uid="{050A52F0-E13A-47C5-92E5-5273CEF4A100}"/>
-    <hyperlink ref="A23" r:id="rId18" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{BE5625C2-0EBA-495E-9185-1F7502F3911E}"/>
-    <hyperlink ref="A24" r:id="rId19" display="https://leetcode.com/problems/merge-sorted-array/" xr:uid="{8651E5B5-1873-4130-A12F-C5B40050035C}"/>
-    <hyperlink ref="A25" r:id="rId20" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/" xr:uid="{4FD02F0B-58BB-4296-AF3B-F65662926E9E}"/>
-    <hyperlink ref="A26" r:id="rId21" display="https://leetcode.com/problems/3sum/" xr:uid="{99CD88E8-9E18-4208-BEF0-1500EA03E8DF}"/>
-    <hyperlink ref="A27" r:id="rId22" display="https://leetcode.com/problems/4sum/" xr:uid="{06B5432D-B39E-4420-89CC-CFD442CEC26A}"/>
-    <hyperlink ref="A28" r:id="rId23" display="https://leetcode.com/problems/container-with-most-water/" xr:uid="{6D533344-54B3-4CE3-B944-0EA6D57315F6}"/>
-    <hyperlink ref="A29" r:id="rId24" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{56FDB56D-0398-47E1-AB7A-266E45CB8332}"/>
-    <hyperlink ref="A34" r:id="rId25" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{8E4FCCF1-B8B1-484C-AFB4-886C9DD3C1C9}"/>
-    <hyperlink ref="A35" r:id="rId26" display="https://leetcode.com/problems/contains-duplicate-ii/" xr:uid="{FCA7B99E-D881-4BC4-A8D6-346A842ACE82}"/>
-    <hyperlink ref="A36" r:id="rId27" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{3400E39B-6359-4625-BE65-44AAFCF96305}"/>
-    <hyperlink ref="A37" r:id="rId28" display="https://leetcode.com/problems/longest-repeating-character-replacement/" xr:uid="{7EF4856B-99D7-456C-96C9-AFB905A9AC52}"/>
-    <hyperlink ref="A38" r:id="rId29" display="https://leetcode.com/problems/permutation-in-string/" xr:uid="{D36E352E-75C5-4705-9599-313E9B16E29F}"/>
-    <hyperlink ref="A39" r:id="rId30" display="https://leetcode.com/problems/minimum-window-substring/" xr:uid="{0386285B-8395-4F84-8292-7AD2FB2586BE}"/>
-    <hyperlink ref="A44" r:id="rId31" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{83B33716-FCBF-4BE7-8D5D-48762326EA96}"/>
-    <hyperlink ref="A45" r:id="rId32" display="https://leetcode.com/problems/generate-parentheses/" xr:uid="{49DDFBA0-8FC7-4E7A-9D54-587F4485EDEF}"/>
-    <hyperlink ref="A46" r:id="rId33" display="https://leetcode.com/problems/daily-temperatures/" xr:uid="{C0B129D6-5540-4793-B862-31F2A868285C}"/>
-    <hyperlink ref="A47" r:id="rId34" display="https://leetcode.com/problems/car-fleet/" xr:uid="{7F4A96B5-D895-4406-B2AE-6CEC4C5DD2D5}"/>
-    <hyperlink ref="A52" r:id="rId35" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{DCEC1176-F147-4761-8829-2C9D1CB0EA6F}"/>
-    <hyperlink ref="A53" r:id="rId36" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{0E055DAC-1E54-4DCF-8FC2-3443D04B956C}"/>
-    <hyperlink ref="A54" r:id="rId37" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/" xr:uid="{B50C1955-2352-4E3E-85D5-8D08DD3154A1}"/>
-    <hyperlink ref="A55" r:id="rId38" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{BE7BADB5-7D76-4C45-88E9-EA6EF369F287}"/>
-    <hyperlink ref="A56" r:id="rId39" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{888E4887-6A1E-43D7-94E7-ED56EB8769CB}"/>
-    <hyperlink ref="A57" r:id="rId40" display="https://leetcode.com/problems/reorder-list/" xr:uid="{CE4EC8F6-5747-47DA-909E-21E25F7EA14A}"/>
-    <hyperlink ref="A58" r:id="rId41" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{98F8F0B8-5C7E-4FB3-B02A-6C9CDD4CAE67}"/>
-    <hyperlink ref="A59" r:id="rId42" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{AE272ACC-BA01-44BC-80C0-B04CFDE8D78F}"/>
-    <hyperlink ref="A60" r:id="rId43" display="https://leetcode.com/problems/add-two-numbers/" xr:uid="{631DC420-482E-4CB2-97F0-0E7644A12930}"/>
-    <hyperlink ref="A61" r:id="rId44" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{32E8A69B-9364-4308-929B-652302F9F0EE}"/>
-    <hyperlink ref="A62" r:id="rId45" display="https://leetcode.com/problems/find-the-duplicate-number/" xr:uid="{62401F14-1A29-4578-9C4B-CA9EF46A1B17}"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{608175FD-8524-4C0A-B110-CAA9BA125110}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://leetcode.com/problems/valid-anagram/" xr:uid="{832B98AA-4D03-4B44-A6F0-83095830EDC2}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://leetcode.com/problems/two-sum/" xr:uid="{027155A8-7BD7-4C96-91AC-5769FA95D73E}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{348AEF5C-2820-4ABA-AD65-A4E6EEADCB90}"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://leetcode.com/problems/remove-element/" xr:uid="{D152BA4C-F34D-48CF-BA33-22B93287E2A3}"/>
+    <hyperlink ref="B6" r:id="rId6" display="https://leetcode.com/problems/can-place-flowers/" xr:uid="{6C503DA3-2603-4EA0-9104-0E0EE7BA5262}"/>
+    <hyperlink ref="B7" r:id="rId7" display="https://leetcode.com/problems/majority-element/" xr:uid="{73CC4953-D412-4916-AAB0-59B60C7BB75E}"/>
+    <hyperlink ref="B8" r:id="rId8" display="https://leetcode.com/problems/design-hashset/" xr:uid="{75F37A29-C012-4C85-9E43-DBEE311F5D61}"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{442EA10F-BB6F-4B7A-92F2-83950976E88A}"/>
+    <hyperlink ref="B10" r:id="rId10" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{CC6E30BA-6950-485B-806E-137C26079A0E}"/>
+    <hyperlink ref="B11" r:id="rId11" display="https://leetcode.com/problems/valid-sudoku/" xr:uid="{8B96258D-24FD-4EFF-87CE-8AAAFDAE79B6}"/>
+    <hyperlink ref="B12" r:id="rId12" display="https://leetcode.com/problems/longest-consecutive-sequence/" xr:uid="{BD133C78-25EB-4BB8-A6A5-D0DC5F2E412E}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{45F88198-FE48-4B66-B3E9-817AF5000338}"/>
+    <hyperlink ref="B14" r:id="rId14" display="https://leetcode.com/problems/find-the-index-of-the-first-occurrence-in-a-string/" xr:uid="{1831720E-929B-418F-B7FB-3EC90F9C8D72}"/>
+    <hyperlink ref="B15" r:id="rId15" display="https://leetcode.com/problems/find-the-difference-of-two-arrays/" xr:uid="{5633BB26-C630-40FF-838F-8340E3B5ADEF}"/>
+    <hyperlink ref="B16" r:id="rId16" display="https://leetcode.com/problems/design-parking-system/" xr:uid="{35633056-67E5-476C-8AB4-9322BE69DECF}"/>
+    <hyperlink ref="B17" r:id="rId17" display="https://leetcode.com/problems/design-underground-system/" xr:uid="{050A52F0-E13A-47C5-92E5-5273CEF4A100}"/>
+    <hyperlink ref="B18" r:id="rId18" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{BE5625C2-0EBA-495E-9185-1F7502F3911E}"/>
+    <hyperlink ref="B19" r:id="rId19" display="https://leetcode.com/problems/merge-sorted-array/" xr:uid="{8651E5B5-1873-4130-A12F-C5B40050035C}"/>
+    <hyperlink ref="B20" r:id="rId20" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/" xr:uid="{4FD02F0B-58BB-4296-AF3B-F65662926E9E}"/>
+    <hyperlink ref="B21" r:id="rId21" display="https://leetcode.com/problems/3sum/" xr:uid="{99CD88E8-9E18-4208-BEF0-1500EA03E8DF}"/>
+    <hyperlink ref="B22" r:id="rId22" display="https://leetcode.com/problems/4sum/" xr:uid="{06B5432D-B39E-4420-89CC-CFD442CEC26A}"/>
+    <hyperlink ref="B23" r:id="rId23" display="https://leetcode.com/problems/container-with-most-water/" xr:uid="{6D533344-54B3-4CE3-B944-0EA6D57315F6}"/>
+    <hyperlink ref="B24" r:id="rId24" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{56FDB56D-0398-47E1-AB7A-266E45CB8332}"/>
+    <hyperlink ref="B25" r:id="rId25" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{8E4FCCF1-B8B1-484C-AFB4-886C9DD3C1C9}"/>
+    <hyperlink ref="B26" r:id="rId26" display="https://leetcode.com/problems/contains-duplicate-ii/" xr:uid="{FCA7B99E-D881-4BC4-A8D6-346A842ACE82}"/>
+    <hyperlink ref="B27" r:id="rId27" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{3400E39B-6359-4625-BE65-44AAFCF96305}"/>
+    <hyperlink ref="B28" r:id="rId28" display="https://leetcode.com/problems/longest-repeating-character-replacement/" xr:uid="{7EF4856B-99D7-456C-96C9-AFB905A9AC52}"/>
+    <hyperlink ref="B29" r:id="rId29" display="https://leetcode.com/problems/permutation-in-string/" xr:uid="{D36E352E-75C5-4705-9599-313E9B16E29F}"/>
+    <hyperlink ref="B30" r:id="rId30" display="https://leetcode.com/problems/minimum-window-substring/" xr:uid="{0386285B-8395-4F84-8292-7AD2FB2586BE}"/>
+    <hyperlink ref="B31" r:id="rId31" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{83B33716-FCBF-4BE7-8D5D-48762326EA96}"/>
+    <hyperlink ref="B32" r:id="rId32" display="https://leetcode.com/problems/generate-parentheses/" xr:uid="{49DDFBA0-8FC7-4E7A-9D54-587F4485EDEF}"/>
+    <hyperlink ref="B33" r:id="rId33" display="https://leetcode.com/problems/daily-temperatures/" xr:uid="{C0B129D6-5540-4793-B862-31F2A868285C}"/>
+    <hyperlink ref="B34" r:id="rId34" display="https://leetcode.com/problems/car-fleet/" xr:uid="{7F4A96B5-D895-4406-B2AE-6CEC4C5DD2D5}"/>
+    <hyperlink ref="B35" r:id="rId35" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{DCEC1176-F147-4761-8829-2C9D1CB0EA6F}"/>
+    <hyperlink ref="B36" r:id="rId36" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{0E055DAC-1E54-4DCF-8FC2-3443D04B956C}"/>
+    <hyperlink ref="B37" r:id="rId37" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/" xr:uid="{B50C1955-2352-4E3E-85D5-8D08DD3154A1}"/>
+    <hyperlink ref="B38" r:id="rId38" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{BE7BADB5-7D76-4C45-88E9-EA6EF369F287}"/>
+    <hyperlink ref="B39" r:id="rId39" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{888E4887-6A1E-43D7-94E7-ED56EB8769CB}"/>
+    <hyperlink ref="B40" r:id="rId40" display="https://leetcode.com/problems/reorder-list/" xr:uid="{CE4EC8F6-5747-47DA-909E-21E25F7EA14A}"/>
+    <hyperlink ref="B41" r:id="rId41" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{98F8F0B8-5C7E-4FB3-B02A-6C9CDD4CAE67}"/>
+    <hyperlink ref="B42" r:id="rId42" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{AE272ACC-BA01-44BC-80C0-B04CFDE8D78F}"/>
+    <hyperlink ref="B43" r:id="rId43" display="https://leetcode.com/problems/add-two-numbers/" xr:uid="{631DC420-482E-4CB2-97F0-0E7644A12930}"/>
+    <hyperlink ref="B44" r:id="rId44" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{32E8A69B-9364-4308-929B-652302F9F0EE}"/>
+    <hyperlink ref="B45" r:id="rId45" display="https://leetcode.com/problems/find-the-duplicate-number/" xr:uid="{62401F14-1A29-4578-9C4B-CA9EF46A1B17}"/>
+    <hyperlink ref="B46" r:id="rId46" display="https://leetcode.com/problems/time-needed-to-inform-all-employees/" xr:uid="{C03EF1D1-C7AC-4FC3-91E5-988458A866EA}"/>
+    <hyperlink ref="B47" r:id="rId47" display="https://leetcode.com/problems/uncrossed-lines/" xr:uid="{FB148DED-83E1-410B-B7E0-F4645513DD95}"/>
+    <hyperlink ref="B48" r:id="rId48" display="https://leetcode.com/problems/solving-questions-with-brainpower/" xr:uid="{FCED487F-57F8-4C75-B4E3-52425AEE1F03}"/>
+    <hyperlink ref="B49" r:id="rId49" display="https://leetcode.com/problems/matrix-diagonal-sum/" xr:uid="{53F98D5F-16FF-4DBE-A25C-B50C1266CE4A}"/>
+    <hyperlink ref="B53" r:id="rId50" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{CCEE440C-829F-4DFB-9565-A7283BEDECC1}"/>
+    <hyperlink ref="B54" r:id="rId51" display="https://leetcode.com/problems/spiral-matrix-ii/" xr:uid="{A41411EB-6CA4-4232-8307-8083A4CC5E3B}"/>
+    <hyperlink ref="B50" r:id="rId52" display="https://leetcode.com/problems/happy-number/" xr:uid="{C7E1834E-C229-459F-AD75-77D4EF730E64}"/>
+    <hyperlink ref="B51" r:id="rId53" display="https://leetcode.com/problems/plus-one/" xr:uid="{D589BC18-1C07-4CAE-BBE6-E40888247C70}"/>
+    <hyperlink ref="B52" r:id="rId54" display="https://leetcode.com/problems/roman-to-integer/" xr:uid="{F7A93AED-E052-4E37-ACA4-04764014ABDF}"/>
+    <hyperlink ref="B55" r:id="rId55" display="https://leetcode.com/problems/single-number/" xr:uid="{7B3DB970-481F-4F23-8E38-34362CD61033}"/>
+    <hyperlink ref="B56" r:id="rId56" display="https://leetcode.com/problems/missing-number/" xr:uid="{BC226EFB-1AFF-405F-B59D-2A1DDE2F20D1}"/>
+    <hyperlink ref="B57" r:id="rId57" display="https://leetcode.com/problems/shuffle-the-array/" xr:uid="{93CD6909-8FF3-4232-85BD-9B9BDBF33FD9}"/>
+    <hyperlink ref="B58" r:id="rId58" display="https://leetcode.com/problems/palindrome-number/" xr:uid="{396C1444-1268-49F1-BB63-11B37A0F4262}"/>
+    <hyperlink ref="B59" r:id="rId59" display="https://leetcode.com/problems/excel-sheet-column-number/" xr:uid="{0D98B2DB-5900-41F2-BF69-0BA34C9775CC}"/>
+    <hyperlink ref="B60" r:id="rId60" display="https://leetcode.com/problems/summary-ranges/" xr:uid="{CD6BCA96-5B8C-4CF8-B89D-204602D88870}"/>
+    <hyperlink ref="B61" r:id="rId61" display="https://leetcode.com/problems/implement-queue-using-stacks/" xr:uid="{42BA5444-F0CF-4C1F-8CE8-5E1557DA1F9C}"/>
+    <hyperlink ref="B62" r:id="rId62" display="https://leetcode.com/problems/intersection-of-two-arrays/" xr:uid="{7B8F77AE-B1C1-4F10-8F2D-1CF7F57FE409}"/>
+    <hyperlink ref="B63" r:id="rId63" display="https://leetcode.com/problems/intersection-of-two-arrays-ii/" xr:uid="{EF947C49-2880-4905-9BF0-187434ECC5D6}"/>
+    <hyperlink ref="B64" r:id="rId64" display="https://leetcode.com/problems/first-unique-character-in-a-string/" xr:uid="{8CEC2EA8-9927-4D61-AE26-0AB12415F078}"/>
+    <hyperlink ref="B65" r:id="rId65" display="https://leetcode.com/problems/max-consecutive-ones/" xr:uid="{46E9052B-CE33-441E-861D-C0EDD0A40E8B}"/>
+    <hyperlink ref="B66" r:id="rId66" display="https://leetcode.com/problems/next-greater-element-i/" xr:uid="{63FAA8C7-D87C-4A15-AF86-82FA8A545D46}"/>
+    <hyperlink ref="B67" r:id="rId67" display="https://leetcode.com/problems/reshape-the-matrix/" xr:uid="{A39D2D66-4787-4191-9635-F2F43DB15A7E}"/>
+    <hyperlink ref="B68" r:id="rId68" display="https://leetcode.com/problems/toeplitz-matrix/" xr:uid="{CC943077-FF89-4FEC-88AB-0CFAA132B644}"/>
+    <hyperlink ref="B69" r:id="rId69" display="https://leetcode.com/problems/flipping-an-image/" xr:uid="{FD0D293C-680C-40AA-BDFC-79090165315B}"/>
+    <hyperlink ref="B70" r:id="rId70" display="https://leetcode.com/problems/transpose-matrix/" xr:uid="{14374E9C-D011-4C3A-AB39-01A698E9AF12}"/>
+    <hyperlink ref="B71" r:id="rId71" display="https://leetcode.com/problems/unique-number-of-occurrences/" xr:uid="{A6367AB1-A81E-4043-AED4-A0E1DD26702D}"/>
+    <hyperlink ref="B72" r:id="rId72" display="https://leetcode.com/problems/cells-with-odd-values-in-a-matrix/" xr:uid="{CA73B473-846C-4F91-863A-899752868AD7}"/>
+    <hyperlink ref="B73" r:id="rId73" display="https://leetcode.com/problems/find-numbers-with-even-number-of-digits/" xr:uid="{BADC90BB-363D-4AF6-8AEE-9C2BAA179BC5}"/>
+    <hyperlink ref="B74" r:id="rId74" display="https://leetcode.com/problems/how-many-numbers-are-smaller-than-the-current-number/" xr:uid="{A385EB07-13A9-4ABA-8D47-7EB6D418F869}"/>
+    <hyperlink ref="B75" r:id="rId75" display="https://leetcode.com/problems/create-target-array-in-the-given-order/" xr:uid="{A1DA1839-00B9-433B-90C6-D5DE63D9BCDB}"/>
+    <hyperlink ref="B76" r:id="rId76" display="https://leetcode.com/problems/kids-with-the-greatest-number-of-candies/" xr:uid="{B4BE0C11-E3A3-45C2-8227-4A4967D2808A}"/>
+    <hyperlink ref="B77" r:id="rId77" display="https://leetcode.com/problems/running-sum-of-1d-array/" xr:uid="{13048B1D-7C0D-43EB-B484-C1DC81566760}"/>
+    <hyperlink ref="B78" r:id="rId78" display="https://leetcode.com/problems/number-of-good-pairs/" xr:uid="{B2B525D2-FBC4-4E9C-AA00-14A4B40F7803}"/>
+    <hyperlink ref="B79" r:id="rId79" display="https://leetcode.com/problems/richest-customer-wealth/" xr:uid="{69A5A254-9341-4842-831A-5FDAADE5C29E}"/>
+    <hyperlink ref="B80" r:id="rId80" display="https://leetcode.com/problems/determine-if-string-halves-are-alike/" xr:uid="{566A253C-C385-479F-B963-DE8D87128C19}"/>
+    <hyperlink ref="B81" r:id="rId81" display="https://leetcode.com/problems/find-the-highest-altitude/" xr:uid="{7A8D5CAC-DB78-40CE-833B-0CED097F4523}"/>
+    <hyperlink ref="B82" r:id="rId82" display="https://leetcode.com/problems/count-items-matching-a-rule/" xr:uid="{F5B56E83-9318-4C79-B4B6-21A0DAF8DC9D}"/>
+    <hyperlink ref="B83" r:id="rId83" display="https://leetcode.com/problems/check-if-the-sentence-is-pangram/" xr:uid="{C34CD17F-5912-4FC2-8AAB-DFF40B74C6E1}"/>
+    <hyperlink ref="B84" r:id="rId84" display="https://leetcode.com/problems/build-array-from-permutation/" xr:uid="{4EA0A31F-90ED-4DCE-A3D4-0BABEA56EEE6}"/>
+    <hyperlink ref="B85" r:id="rId85" display="https://leetcode.com/problems/linked-list-cycle-ii/" xr:uid="{0F4762D1-4690-4342-AF9C-CBCFDB569078}"/>
+    <hyperlink ref="B86" r:id="rId86" display="https://leetcode.com/problems/increasing-triplet-subsequence/" xr:uid="{20D10B8B-8199-486E-B513-A60A34A1B505}"/>
+    <hyperlink ref="B87" r:id="rId87" display="https://leetcode.com/problems/sort-characters-by-frequency/" xr:uid="{71257792-DC8A-4CA1-B8DB-EEA2404F53BE}"/>
+    <hyperlink ref="B88" r:id="rId88" display="https://leetcode.com/problems/minimum-insertions-to-balance-a-parentheses-string/" xr:uid="{A9654C8E-6412-4D56-8271-59654E639711}"/>
+    <hyperlink ref="B89" r:id="rId89" display="https://leetcode.com/problems/determine-if-two-strings-are-close/" xr:uid="{FE4C470D-0AFF-4463-8284-5FA050FEB092}"/>
+    <hyperlink ref="B90" r:id="rId90" display="https://leetcode.com/problems/minimum-average-difference/" xr:uid="{44EF291E-2ABC-48B4-8EAF-6754E04282DE}"/>
+    <hyperlink ref="B91" r:id="rId91" display="https://leetcode.com/problems/equal-row-and-column-pairs/" xr:uid="{9CD3E13C-B828-435B-96BB-B9821AE108B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stuti\OneDrive\Desktop\My DSA Journey\My-DSA-Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6293EE-8F4E-4846-8570-108CB6BB1507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6BB498-D21D-4CB1-BA0D-C79D4AF0A947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{35A28678-342F-4349-8182-F42D339DA923}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="103">
   <si>
     <t xml:space="preserve">Contains Duplicate </t>
   </si>
@@ -231,116 +231,119 @@
     <t>NeetCode</t>
   </si>
   <si>
-    <t>9. Palindrome Number</t>
-  </si>
-  <si>
-    <t>171. Excel Sheet Column Number</t>
-  </si>
-  <si>
-    <t>228. Summary Ranges</t>
-  </si>
-  <si>
-    <t>232. Implement Queue using Stacks</t>
-  </si>
-  <si>
-    <t>349. Intersection of Two Arrays</t>
-  </si>
-  <si>
-    <t>350. Intersection of Two Arrays II</t>
-  </si>
-  <si>
-    <t>387. First Unique Character in a String</t>
-  </si>
-  <si>
-    <t>485. Max Consecutive Ones</t>
-  </si>
-  <si>
-    <t>496. Next Greater Element I</t>
-  </si>
-  <si>
-    <t>566. Reshape the Matrix</t>
-  </si>
-  <si>
-    <t>766. Toeplitz Matrix</t>
-  </si>
-  <si>
-    <t>832. Flipping an Image</t>
-  </si>
-  <si>
-    <t>867. Transpose Matrix</t>
-  </si>
-  <si>
-    <t>1207. Unique Number of Occurrences</t>
-  </si>
-  <si>
-    <t>1252. Cells with Odd Values in a Matrix</t>
-  </si>
-  <si>
-    <t>1295. Find Numbers with Even Number of Digits</t>
-  </si>
-  <si>
-    <t>1365. How Many Numbers Are Smaller Than the Current Number</t>
-  </si>
-  <si>
-    <t>1389. Create Target Array in the Given Order</t>
-  </si>
-  <si>
-    <t>1431. Kids With the Greatest Number of Candies</t>
-  </si>
-  <si>
-    <t>1480. Running Sum of 1d Array</t>
-  </si>
-  <si>
-    <t>1512. Number of Good Pairs</t>
-  </si>
-  <si>
-    <t>1672. Richest Customer Wealth</t>
-  </si>
-  <si>
-    <t>1704. Determine if String Halves Are Alike</t>
-  </si>
-  <si>
-    <t>1732. Find the Highest Altitude</t>
-  </si>
-  <si>
-    <t>1773. Count Items Matching a Rule</t>
-  </si>
-  <si>
-    <t>1832. Check if the Sentence Is Pangram</t>
-  </si>
-  <si>
-    <t>1920. Build Array from Permutation</t>
-  </si>
-  <si>
-    <t>142. Linked List Cycle II</t>
-  </si>
-  <si>
-    <t>334. Increasing Triplet Subsequence</t>
-  </si>
-  <si>
-    <t>451. Sort Characters By Frequency</t>
-  </si>
-  <si>
-    <t>1541. Minimum Insertions to Balance a Parentheses String</t>
-  </si>
-  <si>
-    <t>1657. Determine if Two Strings Are Close</t>
-  </si>
-  <si>
-    <t>2256. Minimum Average Difference</t>
-  </si>
-  <si>
-    <t>2352. Equal Row and Column Pairs</t>
-  </si>
-  <si>
     <t>LeetCode</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Palindrome Number</t>
+  </si>
+  <si>
+    <t>Excel Sheet Column Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Summary Ranges</t>
+  </si>
+  <si>
+    <t>Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Next Greater Element I</t>
+  </si>
+  <si>
+    <t>Reshape the Matrix</t>
+  </si>
+  <si>
+    <t>Toeplitz Matrix</t>
+  </si>
+  <si>
+    <t>Flipping an Image</t>
+  </si>
+  <si>
+    <t>Transpose Matrix</t>
+  </si>
+  <si>
+    <t>Unique Number of Occurrences</t>
+  </si>
+  <si>
+    <t>Cells with Odd Values in a Matrix</t>
+  </si>
+  <si>
+    <t>Find Numbers with Even Number of Digits</t>
+  </si>
+  <si>
+    <t>How Many Numbers Are Smaller Than the Current Number</t>
+  </si>
+  <si>
+    <t>Create Target Array in the Given Order</t>
+  </si>
+  <si>
+    <t>Kids With the Greatest Number of Candies</t>
+  </si>
+  <si>
+    <t>Running Sum of 1d Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of Good Pairs</t>
+  </si>
+  <si>
+    <t>Richest Customer Wealth</t>
+  </si>
+  <si>
+    <t>Determine if String Halves Are Alike</t>
+  </si>
+  <si>
+    <t>Find the Highest Altitude</t>
+  </si>
+  <si>
+    <t>Count Items Matching a Rule</t>
+  </si>
+  <si>
+    <t>Check if the Sentence Is Pangram</t>
+  </si>
+  <si>
+    <t>Build Array from Permutation</t>
+  </si>
+  <si>
+    <t>Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>Increasing Triplet Subsequence</t>
+  </si>
+  <si>
+    <t>Sort Characters By Frequency</t>
+  </si>
+  <si>
+    <t>Minimum Insertions to Balance a Parentheses String</t>
+  </si>
+  <si>
+    <t>Determine if Two Strings Are Close</t>
+  </si>
+  <si>
+    <t>Minimum Average Difference</t>
+  </si>
+  <si>
+    <t>Equal Row and Column Pairs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +355,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -396,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,6 +418,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -732,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C2AC99-E8E0-4C93-A3FF-83FEBC77AAAF}">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -757,10 +770,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>61</v>
@@ -768,10 +781,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -782,32 +795,32 @@
         <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -815,20 +828,20 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -836,8 +849,8 @@
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
@@ -848,18 +861,18 @@
         <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>61</v>
@@ -867,12 +880,12 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -881,10 +894,10 @@
         <v>66</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -892,40 +905,40 @@
         <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
+      <c r="B15" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>61</v>
@@ -935,11 +948,11 @@
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -947,21 +960,21 @@
         <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>30</v>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -969,87 +982,87 @@
         <v>66</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>32</v>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
+        <v>67</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>13</v>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -1057,21 +1070,21 @@
         <v>66</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -1079,32 +1092,32 @@
         <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -1112,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>36</v>
@@ -1122,11 +1135,11 @@
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>16</v>
+      <c r="B35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -1134,73 +1147,73 @@
         <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>45</v>
+      <c r="B42" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>40</v>
@@ -1208,13 +1221,13 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>46</v>
+        <v>67</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -1230,10 +1243,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>40</v>
@@ -1244,10 +1257,10 @@
         <v>66</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -1255,10 +1268,10 @@
         <v>66</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -1266,10 +1279,10 @@
         <v>66</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -1277,10 +1290,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -1288,7 +1301,7 @@
         <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>59</v>
@@ -1296,13 +1309,13 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -1310,433 +1323,539 @@
         <v>66</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>54</v>
+      <c r="B53" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>55</v>
+      <c r="B54" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>64</v>
+      <c r="B57" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="C60" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" s="2" t="s">
+      <c r="C80" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="C82" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C87" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>100</v>
+        <v>23</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C57" xr:uid="{06C2AC99-E8E0-4C93-A3FF-83FEBC77AAAF}"/>
+  <autoFilter ref="A1:C57" xr:uid="{06C2AC99-E8E0-4C93-A3FF-83FEBC77AAAF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C91">
+      <sortCondition ref="B1:B57"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{608175FD-8524-4C0A-B110-CAA9BA125110}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://leetcode.com/problems/valid-anagram/" xr:uid="{832B98AA-4D03-4B44-A6F0-83095830EDC2}"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://leetcode.com/problems/two-sum/" xr:uid="{027155A8-7BD7-4C96-91AC-5769FA95D73E}"/>
-    <hyperlink ref="B4" r:id="rId4" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{348AEF5C-2820-4ABA-AD65-A4E6EEADCB90}"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://leetcode.com/problems/remove-element/" xr:uid="{D152BA4C-F34D-48CF-BA33-22B93287E2A3}"/>
-    <hyperlink ref="B6" r:id="rId6" display="https://leetcode.com/problems/can-place-flowers/" xr:uid="{6C503DA3-2603-4EA0-9104-0E0EE7BA5262}"/>
-    <hyperlink ref="B7" r:id="rId7" display="https://leetcode.com/problems/majority-element/" xr:uid="{73CC4953-D412-4916-AAB0-59B60C7BB75E}"/>
-    <hyperlink ref="B8" r:id="rId8" display="https://leetcode.com/problems/design-hashset/" xr:uid="{75F37A29-C012-4C85-9E43-DBEE311F5D61}"/>
-    <hyperlink ref="B9" r:id="rId9" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{442EA10F-BB6F-4B7A-92F2-83950976E88A}"/>
-    <hyperlink ref="B10" r:id="rId10" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{CC6E30BA-6950-485B-806E-137C26079A0E}"/>
-    <hyperlink ref="B11" r:id="rId11" display="https://leetcode.com/problems/valid-sudoku/" xr:uid="{8B96258D-24FD-4EFF-87CE-8AAAFDAE79B6}"/>
-    <hyperlink ref="B12" r:id="rId12" display="https://leetcode.com/problems/longest-consecutive-sequence/" xr:uid="{BD133C78-25EB-4BB8-A6A5-D0DC5F2E412E}"/>
-    <hyperlink ref="B13" r:id="rId13" xr:uid="{45F88198-FE48-4B66-B3E9-817AF5000338}"/>
-    <hyperlink ref="B14" r:id="rId14" display="https://leetcode.com/problems/find-the-index-of-the-first-occurrence-in-a-string/" xr:uid="{1831720E-929B-418F-B7FB-3EC90F9C8D72}"/>
-    <hyperlink ref="B15" r:id="rId15" display="https://leetcode.com/problems/find-the-difference-of-two-arrays/" xr:uid="{5633BB26-C630-40FF-838F-8340E3B5ADEF}"/>
-    <hyperlink ref="B16" r:id="rId16" display="https://leetcode.com/problems/design-parking-system/" xr:uid="{35633056-67E5-476C-8AB4-9322BE69DECF}"/>
-    <hyperlink ref="B17" r:id="rId17" display="https://leetcode.com/problems/design-underground-system/" xr:uid="{050A52F0-E13A-47C5-92E5-5273CEF4A100}"/>
-    <hyperlink ref="B18" r:id="rId18" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{BE5625C2-0EBA-495E-9185-1F7502F3911E}"/>
-    <hyperlink ref="B19" r:id="rId19" display="https://leetcode.com/problems/merge-sorted-array/" xr:uid="{8651E5B5-1873-4130-A12F-C5B40050035C}"/>
-    <hyperlink ref="B20" r:id="rId20" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/" xr:uid="{4FD02F0B-58BB-4296-AF3B-F65662926E9E}"/>
-    <hyperlink ref="B21" r:id="rId21" display="https://leetcode.com/problems/3sum/" xr:uid="{99CD88E8-9E18-4208-BEF0-1500EA03E8DF}"/>
-    <hyperlink ref="B22" r:id="rId22" display="https://leetcode.com/problems/4sum/" xr:uid="{06B5432D-B39E-4420-89CC-CFD442CEC26A}"/>
-    <hyperlink ref="B23" r:id="rId23" display="https://leetcode.com/problems/container-with-most-water/" xr:uid="{6D533344-54B3-4CE3-B944-0EA6D57315F6}"/>
-    <hyperlink ref="B24" r:id="rId24" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{56FDB56D-0398-47E1-AB7A-266E45CB8332}"/>
-    <hyperlink ref="B25" r:id="rId25" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{8E4FCCF1-B8B1-484C-AFB4-886C9DD3C1C9}"/>
-    <hyperlink ref="B26" r:id="rId26" display="https://leetcode.com/problems/contains-duplicate-ii/" xr:uid="{FCA7B99E-D881-4BC4-A8D6-346A842ACE82}"/>
-    <hyperlink ref="B27" r:id="rId27" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{3400E39B-6359-4625-BE65-44AAFCF96305}"/>
-    <hyperlink ref="B28" r:id="rId28" display="https://leetcode.com/problems/longest-repeating-character-replacement/" xr:uid="{7EF4856B-99D7-456C-96C9-AFB905A9AC52}"/>
-    <hyperlink ref="B29" r:id="rId29" display="https://leetcode.com/problems/permutation-in-string/" xr:uid="{D36E352E-75C5-4705-9599-313E9B16E29F}"/>
-    <hyperlink ref="B30" r:id="rId30" display="https://leetcode.com/problems/minimum-window-substring/" xr:uid="{0386285B-8395-4F84-8292-7AD2FB2586BE}"/>
-    <hyperlink ref="B31" r:id="rId31" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{83B33716-FCBF-4BE7-8D5D-48762326EA96}"/>
-    <hyperlink ref="B32" r:id="rId32" display="https://leetcode.com/problems/generate-parentheses/" xr:uid="{49DDFBA0-8FC7-4E7A-9D54-587F4485EDEF}"/>
-    <hyperlink ref="B33" r:id="rId33" display="https://leetcode.com/problems/daily-temperatures/" xr:uid="{C0B129D6-5540-4793-B862-31F2A868285C}"/>
-    <hyperlink ref="B34" r:id="rId34" display="https://leetcode.com/problems/car-fleet/" xr:uid="{7F4A96B5-D895-4406-B2AE-6CEC4C5DD2D5}"/>
-    <hyperlink ref="B35" r:id="rId35" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{DCEC1176-F147-4761-8829-2C9D1CB0EA6F}"/>
-    <hyperlink ref="B36" r:id="rId36" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{0E055DAC-1E54-4DCF-8FC2-3443D04B956C}"/>
-    <hyperlink ref="B37" r:id="rId37" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/" xr:uid="{B50C1955-2352-4E3E-85D5-8D08DD3154A1}"/>
-    <hyperlink ref="B38" r:id="rId38" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{BE7BADB5-7D76-4C45-88E9-EA6EF369F287}"/>
-    <hyperlink ref="B39" r:id="rId39" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{888E4887-6A1E-43D7-94E7-ED56EB8769CB}"/>
-    <hyperlink ref="B40" r:id="rId40" display="https://leetcode.com/problems/reorder-list/" xr:uid="{CE4EC8F6-5747-47DA-909E-21E25F7EA14A}"/>
-    <hyperlink ref="B41" r:id="rId41" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{98F8F0B8-5C7E-4FB3-B02A-6C9CDD4CAE67}"/>
-    <hyperlink ref="B42" r:id="rId42" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{AE272ACC-BA01-44BC-80C0-B04CFDE8D78F}"/>
-    <hyperlink ref="B43" r:id="rId43" display="https://leetcode.com/problems/add-two-numbers/" xr:uid="{631DC420-482E-4CB2-97F0-0E7644A12930}"/>
+    <hyperlink ref="B88" r:id="rId2" display="https://leetcode.com/problems/valid-anagram/" xr:uid="{832B98AA-4D03-4B44-A6F0-83095830EDC2}"/>
+    <hyperlink ref="B84" r:id="rId3" display="https://leetcode.com/problems/two-sum/" xr:uid="{027155A8-7BD7-4C96-91AC-5769FA95D73E}"/>
+    <hyperlink ref="B35" r:id="rId4" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{348AEF5C-2820-4ABA-AD65-A4E6EEADCB90}"/>
+    <hyperlink ref="B65" r:id="rId5" display="https://leetcode.com/problems/remove-element/" xr:uid="{D152BA4C-F34D-48CF-BA33-22B93287E2A3}"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://leetcode.com/problems/can-place-flowers/" xr:uid="{6C503DA3-2603-4EA0-9104-0E0EE7BA5262}"/>
+    <hyperlink ref="B49" r:id="rId7" display="https://leetcode.com/problems/majority-element/" xr:uid="{73CC4953-D412-4916-AAB0-59B60C7BB75E}"/>
+    <hyperlink ref="B19" r:id="rId8" display="https://leetcode.com/problems/design-hashset/" xr:uid="{75F37A29-C012-4C85-9E43-DBEE311F5D61}"/>
+    <hyperlink ref="B81" r:id="rId9" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{442EA10F-BB6F-4B7A-92F2-83950976E88A}"/>
+    <hyperlink ref="B63" r:id="rId10" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{CC6E30BA-6950-485B-806E-137C26079A0E}"/>
+    <hyperlink ref="B91" r:id="rId11" display="https://leetcode.com/problems/valid-sudoku/" xr:uid="{8B96258D-24FD-4EFF-87CE-8AAAFDAE79B6}"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://leetcode.com/problems/longest-consecutive-sequence/" xr:uid="{BD133C78-25EB-4BB8-A6A5-D0DC5F2E412E}"/>
+    <hyperlink ref="B24" r:id="rId13" xr:uid="{45F88198-FE48-4B66-B3E9-817AF5000338}"/>
+    <hyperlink ref="B31" r:id="rId14" display="https://leetcode.com/problems/find-the-index-of-the-first-occurrence-in-a-string/" xr:uid="{1831720E-929B-418F-B7FB-3EC90F9C8D72}"/>
+    <hyperlink ref="B28" r:id="rId15" display="https://leetcode.com/problems/find-the-difference-of-two-arrays/" xr:uid="{5633BB26-C630-40FF-838F-8340E3B5ADEF}"/>
+    <hyperlink ref="B20" r:id="rId16" display="https://leetcode.com/problems/design-parking-system/" xr:uid="{35633056-67E5-476C-8AB4-9322BE69DECF}"/>
+    <hyperlink ref="B21" r:id="rId17" display="https://leetcode.com/problems/design-underground-system/" xr:uid="{050A52F0-E13A-47C5-92E5-5273CEF4A100}"/>
+    <hyperlink ref="B89" r:id="rId18" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{BE5625C2-0EBA-495E-9185-1F7502F3911E}"/>
+    <hyperlink ref="B52" r:id="rId19" display="https://leetcode.com/problems/merge-sorted-array/" xr:uid="{8651E5B5-1873-4130-A12F-C5B40050035C}"/>
+    <hyperlink ref="B85" r:id="rId20" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/" xr:uid="{4FD02F0B-58BB-4296-AF3B-F65662926E9E}"/>
+    <hyperlink ref="B4" r:id="rId21" display="https://leetcode.com/problems/3sum/" xr:uid="{99CD88E8-9E18-4208-BEF0-1500EA03E8DF}"/>
+    <hyperlink ref="B5" r:id="rId22" display="https://leetcode.com/problems/4sum/" xr:uid="{06B5432D-B39E-4420-89CC-CFD442CEC26A}"/>
+    <hyperlink ref="B13" r:id="rId23" display="https://leetcode.com/problems/container-with-most-water/" xr:uid="{6D533344-54B3-4CE3-B944-0EA6D57315F6}"/>
+    <hyperlink ref="B83" r:id="rId24" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{56FDB56D-0398-47E1-AB7A-266E45CB8332}"/>
+    <hyperlink ref="B7" r:id="rId25" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{8E4FCCF1-B8B1-484C-AFB4-886C9DD3C1C9}"/>
+    <hyperlink ref="B14" r:id="rId26" display="https://leetcode.com/problems/contains-duplicate-ii/" xr:uid="{FCA7B99E-D881-4BC4-A8D6-346A842ACE82}"/>
+    <hyperlink ref="B48" r:id="rId27" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{3400E39B-6359-4625-BE65-44AAFCF96305}"/>
+    <hyperlink ref="B47" r:id="rId28" display="https://leetcode.com/problems/longest-repeating-character-replacement/" xr:uid="{7EF4856B-99D7-456C-96C9-AFB905A9AC52}"/>
+    <hyperlink ref="B61" r:id="rId29" display="https://leetcode.com/problems/permutation-in-string/" xr:uid="{D36E352E-75C5-4705-9599-313E9B16E29F}"/>
+    <hyperlink ref="B57" r:id="rId30" display="https://leetcode.com/problems/minimum-window-substring/" xr:uid="{0386285B-8395-4F84-8292-7AD2FB2586BE}"/>
+    <hyperlink ref="B90" r:id="rId31" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{83B33716-FCBF-4BE7-8D5D-48762326EA96}"/>
+    <hyperlink ref="B34" r:id="rId32" display="https://leetcode.com/problems/generate-parentheses/" xr:uid="{49DDFBA0-8FC7-4E7A-9D54-587F4485EDEF}"/>
+    <hyperlink ref="B18" r:id="rId33" display="https://leetcode.com/problems/daily-temperatures/" xr:uid="{C0B129D6-5540-4793-B862-31F2A868285C}"/>
+    <hyperlink ref="B10" r:id="rId34" display="https://leetcode.com/problems/car-fleet/" xr:uid="{7F4A96B5-D895-4406-B2AE-6CEC4C5DD2D5}"/>
+    <hyperlink ref="B69" r:id="rId35" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{DCEC1176-F147-4761-8829-2C9D1CB0EA6F}"/>
+    <hyperlink ref="B53" r:id="rId36" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{0E055DAC-1E54-4DCF-8FC2-3443D04B956C}"/>
+    <hyperlink ref="B64" r:id="rId37" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/" xr:uid="{B50C1955-2352-4E3E-85D5-8D08DD3154A1}"/>
+    <hyperlink ref="B54" r:id="rId38" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{BE7BADB5-7D76-4C45-88E9-EA6EF369F287}"/>
+    <hyperlink ref="B42" r:id="rId39" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{888E4887-6A1E-43D7-94E7-ED56EB8769CB}"/>
+    <hyperlink ref="B67" r:id="rId40" display="https://leetcode.com/problems/reorder-list/" xr:uid="{CE4EC8F6-5747-47DA-909E-21E25F7EA14A}"/>
+    <hyperlink ref="B66" r:id="rId41" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{98F8F0B8-5C7E-4FB3-B02A-6C9CDD4CAE67}"/>
+    <hyperlink ref="B15" r:id="rId42" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{AE272ACC-BA01-44BC-80C0-B04CFDE8D78F}"/>
+    <hyperlink ref="B6" r:id="rId43" display="https://leetcode.com/problems/add-two-numbers/" xr:uid="{631DC420-482E-4CB2-97F0-0E7644A12930}"/>
     <hyperlink ref="B44" r:id="rId44" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{32E8A69B-9364-4308-929B-652302F9F0EE}"/>
-    <hyperlink ref="B45" r:id="rId45" display="https://leetcode.com/problems/find-the-duplicate-number/" xr:uid="{62401F14-1A29-4578-9C4B-CA9EF46A1B17}"/>
-    <hyperlink ref="B46" r:id="rId46" display="https://leetcode.com/problems/time-needed-to-inform-all-employees/" xr:uid="{C03EF1D1-C7AC-4FC3-91E5-988458A866EA}"/>
-    <hyperlink ref="B47" r:id="rId47" display="https://leetcode.com/problems/uncrossed-lines/" xr:uid="{FB148DED-83E1-410B-B7E0-F4645513DD95}"/>
-    <hyperlink ref="B48" r:id="rId48" display="https://leetcode.com/problems/solving-questions-with-brainpower/" xr:uid="{FCED487F-57F8-4C75-B4E3-52425AEE1F03}"/>
-    <hyperlink ref="B49" r:id="rId49" display="https://leetcode.com/problems/matrix-diagonal-sum/" xr:uid="{53F98D5F-16FF-4DBE-A25C-B50C1266CE4A}"/>
-    <hyperlink ref="B53" r:id="rId50" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{CCEE440C-829F-4DFB-9565-A7283BEDECC1}"/>
-    <hyperlink ref="B54" r:id="rId51" display="https://leetcode.com/problems/spiral-matrix-ii/" xr:uid="{A41411EB-6CA4-4232-8307-8083A4CC5E3B}"/>
-    <hyperlink ref="B50" r:id="rId52" display="https://leetcode.com/problems/happy-number/" xr:uid="{C7E1834E-C229-459F-AD75-77D4EF730E64}"/>
-    <hyperlink ref="B51" r:id="rId53" display="https://leetcode.com/problems/plus-one/" xr:uid="{D589BC18-1C07-4CAE-BBE6-E40888247C70}"/>
-    <hyperlink ref="B52" r:id="rId54" display="https://leetcode.com/problems/roman-to-integer/" xr:uid="{F7A93AED-E052-4E37-ACA4-04764014ABDF}"/>
-    <hyperlink ref="B55" r:id="rId55" display="https://leetcode.com/problems/single-number/" xr:uid="{7B3DB970-481F-4F23-8E38-34362CD61033}"/>
-    <hyperlink ref="B56" r:id="rId56" display="https://leetcode.com/problems/missing-number/" xr:uid="{BC226EFB-1AFF-405F-B59D-2A1DDE2F20D1}"/>
-    <hyperlink ref="B57" r:id="rId57" display="https://leetcode.com/problems/shuffle-the-array/" xr:uid="{93CD6909-8FF3-4232-85BD-9B9BDBF33FD9}"/>
-    <hyperlink ref="B58" r:id="rId58" display="https://leetcode.com/problems/palindrome-number/" xr:uid="{396C1444-1268-49F1-BB63-11B37A0F4262}"/>
-    <hyperlink ref="B59" r:id="rId59" display="https://leetcode.com/problems/excel-sheet-column-number/" xr:uid="{0D98B2DB-5900-41F2-BF69-0BA34C9775CC}"/>
-    <hyperlink ref="B60" r:id="rId60" display="https://leetcode.com/problems/summary-ranges/" xr:uid="{CD6BCA96-5B8C-4CF8-B89D-204602D88870}"/>
-    <hyperlink ref="B61" r:id="rId61" display="https://leetcode.com/problems/implement-queue-using-stacks/" xr:uid="{42BA5444-F0CF-4C1F-8CE8-5E1557DA1F9C}"/>
-    <hyperlink ref="B62" r:id="rId62" display="https://leetcode.com/problems/intersection-of-two-arrays/" xr:uid="{7B8F77AE-B1C1-4F10-8F2D-1CF7F57FE409}"/>
-    <hyperlink ref="B63" r:id="rId63" display="https://leetcode.com/problems/intersection-of-two-arrays-ii/" xr:uid="{EF947C49-2880-4905-9BF0-187434ECC5D6}"/>
-    <hyperlink ref="B64" r:id="rId64" display="https://leetcode.com/problems/first-unique-character-in-a-string/" xr:uid="{8CEC2EA8-9927-4D61-AE26-0AB12415F078}"/>
-    <hyperlink ref="B65" r:id="rId65" display="https://leetcode.com/problems/max-consecutive-ones/" xr:uid="{46E9052B-CE33-441E-861D-C0EDD0A40E8B}"/>
-    <hyperlink ref="B66" r:id="rId66" display="https://leetcode.com/problems/next-greater-element-i/" xr:uid="{63FAA8C7-D87C-4A15-AF86-82FA8A545D46}"/>
-    <hyperlink ref="B67" r:id="rId67" display="https://leetcode.com/problems/reshape-the-matrix/" xr:uid="{A39D2D66-4787-4191-9635-F2F43DB15A7E}"/>
-    <hyperlink ref="B68" r:id="rId68" display="https://leetcode.com/problems/toeplitz-matrix/" xr:uid="{CC943077-FF89-4FEC-88AB-0CFAA132B644}"/>
-    <hyperlink ref="B69" r:id="rId69" display="https://leetcode.com/problems/flipping-an-image/" xr:uid="{FD0D293C-680C-40AA-BDFC-79090165315B}"/>
-    <hyperlink ref="B70" r:id="rId70" display="https://leetcode.com/problems/transpose-matrix/" xr:uid="{14374E9C-D011-4C3A-AB39-01A698E9AF12}"/>
-    <hyperlink ref="B71" r:id="rId71" display="https://leetcode.com/problems/unique-number-of-occurrences/" xr:uid="{A6367AB1-A81E-4043-AED4-A0E1DD26702D}"/>
-    <hyperlink ref="B72" r:id="rId72" display="https://leetcode.com/problems/cells-with-odd-values-in-a-matrix/" xr:uid="{CA73B473-846C-4F91-863A-899752868AD7}"/>
-    <hyperlink ref="B73" r:id="rId73" display="https://leetcode.com/problems/find-numbers-with-even-number-of-digits/" xr:uid="{BADC90BB-363D-4AF6-8AEE-9C2BAA179BC5}"/>
-    <hyperlink ref="B74" r:id="rId74" display="https://leetcode.com/problems/how-many-numbers-are-smaller-than-the-current-number/" xr:uid="{A385EB07-13A9-4ABA-8D47-7EB6D418F869}"/>
-    <hyperlink ref="B75" r:id="rId75" display="https://leetcode.com/problems/create-target-array-in-the-given-order/" xr:uid="{A1DA1839-00B9-433B-90C6-D5DE63D9BCDB}"/>
-    <hyperlink ref="B76" r:id="rId76" display="https://leetcode.com/problems/kids-with-the-greatest-number-of-candies/" xr:uid="{B4BE0C11-E3A3-45C2-8227-4A4967D2808A}"/>
-    <hyperlink ref="B77" r:id="rId77" display="https://leetcode.com/problems/running-sum-of-1d-array/" xr:uid="{13048B1D-7C0D-43EB-B484-C1DC81566760}"/>
-    <hyperlink ref="B78" r:id="rId78" display="https://leetcode.com/problems/number-of-good-pairs/" xr:uid="{B2B525D2-FBC4-4E9C-AA00-14A4B40F7803}"/>
-    <hyperlink ref="B79" r:id="rId79" display="https://leetcode.com/problems/richest-customer-wealth/" xr:uid="{69A5A254-9341-4842-831A-5FDAADE5C29E}"/>
-    <hyperlink ref="B80" r:id="rId80" display="https://leetcode.com/problems/determine-if-string-halves-are-alike/" xr:uid="{566A253C-C385-479F-B963-DE8D87128C19}"/>
-    <hyperlink ref="B81" r:id="rId81" display="https://leetcode.com/problems/find-the-highest-altitude/" xr:uid="{7A8D5CAC-DB78-40CE-833B-0CED097F4523}"/>
-    <hyperlink ref="B82" r:id="rId82" display="https://leetcode.com/problems/count-items-matching-a-rule/" xr:uid="{F5B56E83-9318-4C79-B4B6-21A0DAF8DC9D}"/>
-    <hyperlink ref="B83" r:id="rId83" display="https://leetcode.com/problems/check-if-the-sentence-is-pangram/" xr:uid="{C34CD17F-5912-4FC2-8AAB-DFF40B74C6E1}"/>
-    <hyperlink ref="B84" r:id="rId84" display="https://leetcode.com/problems/build-array-from-permutation/" xr:uid="{4EA0A31F-90ED-4DCE-A3D4-0BABEA56EEE6}"/>
-    <hyperlink ref="B85" r:id="rId85" display="https://leetcode.com/problems/linked-list-cycle-ii/" xr:uid="{0F4762D1-4690-4342-AF9C-CBCFDB569078}"/>
-    <hyperlink ref="B86" r:id="rId86" display="https://leetcode.com/problems/increasing-triplet-subsequence/" xr:uid="{20D10B8B-8199-486E-B513-A60A34A1B505}"/>
-    <hyperlink ref="B87" r:id="rId87" display="https://leetcode.com/problems/sort-characters-by-frequency/" xr:uid="{71257792-DC8A-4CA1-B8DB-EEA2404F53BE}"/>
-    <hyperlink ref="B88" r:id="rId88" display="https://leetcode.com/problems/minimum-insertions-to-balance-a-parentheses-string/" xr:uid="{A9654C8E-6412-4D56-8271-59654E639711}"/>
-    <hyperlink ref="B89" r:id="rId89" display="https://leetcode.com/problems/determine-if-two-strings-are-close/" xr:uid="{FE4C470D-0AFF-4463-8284-5FA050FEB092}"/>
-    <hyperlink ref="B90" r:id="rId90" display="https://leetcode.com/problems/minimum-average-difference/" xr:uid="{44EF291E-2ABC-48B4-8EAF-6754E04282DE}"/>
-    <hyperlink ref="B91" r:id="rId91" display="https://leetcode.com/problems/equal-row-and-column-pairs/" xr:uid="{9CD3E13C-B828-435B-96BB-B9821AE108B0}"/>
+    <hyperlink ref="B29" r:id="rId45" display="https://leetcode.com/problems/find-the-duplicate-number/" xr:uid="{62401F14-1A29-4578-9C4B-CA9EF46A1B17}"/>
+    <hyperlink ref="B79" r:id="rId46" display="https://leetcode.com/problems/time-needed-to-inform-all-employees/" xr:uid="{C03EF1D1-C7AC-4FC3-91E5-988458A866EA}"/>
+    <hyperlink ref="B86" r:id="rId47" display="https://leetcode.com/problems/uncrossed-lines/" xr:uid="{FB148DED-83E1-410B-B7E0-F4645513DD95}"/>
+    <hyperlink ref="B75" r:id="rId48" display="https://leetcode.com/problems/solving-questions-with-brainpower/" xr:uid="{FCED487F-57F8-4C75-B4E3-52425AEE1F03}"/>
+    <hyperlink ref="B50" r:id="rId49" display="https://leetcode.com/problems/matrix-diagonal-sum/" xr:uid="{53F98D5F-16FF-4DBE-A25C-B50C1266CE4A}"/>
+    <hyperlink ref="B77" r:id="rId50" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{CCEE440C-829F-4DFB-9565-A7283BEDECC1}"/>
+    <hyperlink ref="B78" r:id="rId51" display="https://leetcode.com/problems/spiral-matrix-ii/" xr:uid="{A41411EB-6CA4-4232-8307-8083A4CC5E3B}"/>
+    <hyperlink ref="B36" r:id="rId52" display="https://leetcode.com/problems/happy-number/" xr:uid="{C7E1834E-C229-459F-AD75-77D4EF730E64}"/>
+    <hyperlink ref="B62" r:id="rId53" display="https://leetcode.com/problems/plus-one/" xr:uid="{D589BC18-1C07-4CAE-BBE6-E40888247C70}"/>
+    <hyperlink ref="B71" r:id="rId54" display="https://leetcode.com/problems/roman-to-integer/" xr:uid="{F7A93AED-E052-4E37-ACA4-04764014ABDF}"/>
+    <hyperlink ref="B74" r:id="rId55" display="https://leetcode.com/problems/single-number/" xr:uid="{7B3DB970-481F-4F23-8E38-34362CD61033}"/>
+    <hyperlink ref="B58" r:id="rId56" display="https://leetcode.com/problems/missing-number/" xr:uid="{BC226EFB-1AFF-405F-B59D-2A1DDE2F20D1}"/>
+    <hyperlink ref="B73" r:id="rId57" display="https://leetcode.com/problems/shuffle-the-array/" xr:uid="{93CD6909-8FF3-4232-85BD-9B9BDBF33FD9}"/>
+    <hyperlink ref="B60" r:id="rId58" display="https://leetcode.com/problems/palindrome-number/" xr:uid="{396C1444-1268-49F1-BB63-11B37A0F4262}"/>
+    <hyperlink ref="B26" r:id="rId59" display="https://leetcode.com/problems/excel-sheet-column-number/" xr:uid="{0D98B2DB-5900-41F2-BF69-0BA34C9775CC}"/>
+    <hyperlink ref="B3" r:id="rId60" display="https://leetcode.com/problems/summary-ranges/" xr:uid="{CD6BCA96-5B8C-4CF8-B89D-204602D88870}"/>
+    <hyperlink ref="B38" r:id="rId61" display="https://leetcode.com/problems/implement-queue-using-stacks/" xr:uid="{42BA5444-F0CF-4C1F-8CE8-5E1557DA1F9C}"/>
+    <hyperlink ref="B40" r:id="rId62" display="https://leetcode.com/problems/intersection-of-two-arrays/" xr:uid="{7B8F77AE-B1C1-4F10-8F2D-1CF7F57FE409}"/>
+    <hyperlink ref="B41" r:id="rId63" display="https://leetcode.com/problems/intersection-of-two-arrays-ii/" xr:uid="{EF947C49-2880-4905-9BF0-187434ECC5D6}"/>
+    <hyperlink ref="B32" r:id="rId64" display="https://leetcode.com/problems/first-unique-character-in-a-string/" xr:uid="{8CEC2EA8-9927-4D61-AE26-0AB12415F078}"/>
+    <hyperlink ref="B51" r:id="rId65" display="https://leetcode.com/problems/max-consecutive-ones/" xr:uid="{46E9052B-CE33-441E-861D-C0EDD0A40E8B}"/>
+    <hyperlink ref="B59" r:id="rId66" display="https://leetcode.com/problems/next-greater-element-i/" xr:uid="{63FAA8C7-D87C-4A15-AF86-82FA8A545D46}"/>
+    <hyperlink ref="B68" r:id="rId67" display="https://leetcode.com/problems/reshape-the-matrix/" xr:uid="{A39D2D66-4787-4191-9635-F2F43DB15A7E}"/>
+    <hyperlink ref="B80" r:id="rId68" display="https://leetcode.com/problems/toeplitz-matrix/" xr:uid="{CC943077-FF89-4FEC-88AB-0CFAA132B644}"/>
+    <hyperlink ref="B33" r:id="rId69" display="https://leetcode.com/problems/flipping-an-image/" xr:uid="{FD0D293C-680C-40AA-BDFC-79090165315B}"/>
+    <hyperlink ref="B82" r:id="rId70" display="https://leetcode.com/problems/transpose-matrix/" xr:uid="{14374E9C-D011-4C3A-AB39-01A698E9AF12}"/>
+    <hyperlink ref="B87" r:id="rId71" display="https://leetcode.com/problems/unique-number-of-occurrences/" xr:uid="{A6367AB1-A81E-4043-AED4-A0E1DD26702D}"/>
+    <hyperlink ref="B11" r:id="rId72" display="https://leetcode.com/problems/cells-with-odd-values-in-a-matrix/" xr:uid="{CA73B473-846C-4F91-863A-899752868AD7}"/>
+    <hyperlink ref="B27" r:id="rId73" display="https://leetcode.com/problems/find-numbers-with-even-number-of-digits/" xr:uid="{BADC90BB-363D-4AF6-8AEE-9C2BAA179BC5}"/>
+    <hyperlink ref="B37" r:id="rId74" display="https://leetcode.com/problems/how-many-numbers-are-smaller-than-the-current-number/" xr:uid="{A385EB07-13A9-4ABA-8D47-7EB6D418F869}"/>
+    <hyperlink ref="B17" r:id="rId75" display="https://leetcode.com/problems/create-target-array-in-the-given-order/" xr:uid="{A1DA1839-00B9-433B-90C6-D5DE63D9BCDB}"/>
+    <hyperlink ref="B43" r:id="rId76" display="https://leetcode.com/problems/kids-with-the-greatest-number-of-candies/" xr:uid="{B4BE0C11-E3A3-45C2-8227-4A4967D2808A}"/>
+    <hyperlink ref="B72" r:id="rId77" display="https://leetcode.com/problems/running-sum-of-1d-array/" xr:uid="{13048B1D-7C0D-43EB-B484-C1DC81566760}"/>
+    <hyperlink ref="B2" r:id="rId78" display="https://leetcode.com/problems/number-of-good-pairs/" xr:uid="{B2B525D2-FBC4-4E9C-AA00-14A4B40F7803}"/>
+    <hyperlink ref="B70" r:id="rId79" display="https://leetcode.com/problems/richest-customer-wealth/" xr:uid="{69A5A254-9341-4842-831A-5FDAADE5C29E}"/>
+    <hyperlink ref="B22" r:id="rId80" display="https://leetcode.com/problems/determine-if-string-halves-are-alike/" xr:uid="{566A253C-C385-479F-B963-DE8D87128C19}"/>
+    <hyperlink ref="B30" r:id="rId81" display="https://leetcode.com/problems/find-the-highest-altitude/" xr:uid="{7A8D5CAC-DB78-40CE-833B-0CED097F4523}"/>
+    <hyperlink ref="B16" r:id="rId82" display="https://leetcode.com/problems/count-items-matching-a-rule/" xr:uid="{F5B56E83-9318-4C79-B4B6-21A0DAF8DC9D}"/>
+    <hyperlink ref="B12" r:id="rId83" display="https://leetcode.com/problems/check-if-the-sentence-is-pangram/" xr:uid="{C34CD17F-5912-4FC2-8AAB-DFF40B74C6E1}"/>
+    <hyperlink ref="B8" r:id="rId84" display="https://leetcode.com/problems/build-array-from-permutation/" xr:uid="{4EA0A31F-90ED-4DCE-A3D4-0BABEA56EEE6}"/>
+    <hyperlink ref="B45" r:id="rId85" display="https://leetcode.com/problems/linked-list-cycle-ii/" xr:uid="{0F4762D1-4690-4342-AF9C-CBCFDB569078}"/>
+    <hyperlink ref="B39" r:id="rId86" display="https://leetcode.com/problems/increasing-triplet-subsequence/" xr:uid="{20D10B8B-8199-486E-B513-A60A34A1B505}"/>
+    <hyperlink ref="B56" r:id="rId87" display="https://leetcode.com/problems/minimum-insertions-to-balance-a-parentheses-string/" xr:uid="{A9654C8E-6412-4D56-8271-59654E639711}"/>
+    <hyperlink ref="B23" r:id="rId88" display="https://leetcode.com/problems/determine-if-two-strings-are-close/" xr:uid="{FE4C470D-0AFF-4463-8284-5FA050FEB092}"/>
+    <hyperlink ref="B55" r:id="rId89" display="https://leetcode.com/problems/minimum-average-difference/" xr:uid="{44EF291E-2ABC-48B4-8EAF-6754E04282DE}"/>
+    <hyperlink ref="B25" r:id="rId90" display="https://leetcode.com/problems/equal-row-and-column-pairs/" xr:uid="{9CD3E13C-B828-435B-96BB-B9821AE108B0}"/>
+    <hyperlink ref="B76" r:id="rId91" display="https://leetcode.com/problems/sort-characters-by-frequency/" xr:uid="{71257792-DC8A-4CA1-B8DB-EEA2404F53BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
